--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Parámetro</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>Coef_Variacion</t>
-  </si>
-  <si>
-    <t>100.0%</t>
-  </si>
-  <si>
-    <t>66.7%</t>
-  </si>
-  <si>
-    <t>33.3%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -608,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -622,16 +613,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -639,16 +630,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -656,13 +647,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -703,13 +694,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.656379478021108E-10</v>
+        <v>0.01168083775224749</v>
       </c>
       <c r="D2">
-        <v>2.625314499127285E-08</v>
+        <v>0.02129532017764135</v>
       </c>
       <c r="E2">
-        <v>3.502974326630159E-05</v>
+        <v>0.04463706537645407</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -717,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.656379478021108E-10</v>
+        <v>0.01168083775224749</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.612315689962344E-07</v>
+        <v>0.02993862536184366</v>
       </c>
       <c r="E3">
-        <v>0.0001274637354338193</v>
+        <v>0.05437911888773295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -734,16 +725,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.625314499127285E-08</v>
+        <v>0.02129532017764135</v>
       </c>
       <c r="C4">
-        <v>5.612315689962344E-07</v>
+        <v>0.02993862536184366</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.004555090070736734</v>
+        <v>0.07902955602612649</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -751,13 +742,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.502974326630159E-05</v>
+        <v>0.04463706537645407</v>
       </c>
       <c r="C5">
-        <v>0.0001274637354338193</v>
+        <v>0.05437911888773295</v>
       </c>
       <c r="D5">
-        <v>0.004555090070736734</v>
+        <v>0.07902955602612649</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -798,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.403515635769797</v>
+        <v>-2.66533750903342</v>
       </c>
       <c r="D2">
-        <v>-5.573585557628096</v>
+        <v>-2.414323232006722</v>
       </c>
       <c r="E2">
-        <v>-4.141755740788659</v>
+        <v>-2.085129740167291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -812,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6.403515635769797</v>
+        <v>2.66533750903342</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.010574026523395</v>
+        <v>-2.265916207543778</v>
       </c>
       <c r="E3">
-        <v>-3.834290528326465</v>
+        <v>-1.992628696224204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -829,16 +820,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.573585557628096</v>
+        <v>2.414323232006722</v>
       </c>
       <c r="C4">
-        <v>5.010574026523395</v>
+        <v>2.265916207543778</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.838194900053598</v>
+        <v>-1.810714199399733</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -846,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.141755740788659</v>
+        <v>2.085129740167291</v>
       </c>
       <c r="C5">
-        <v>3.834290528326465</v>
+        <v>1.992628696224204</v>
       </c>
       <c r="D5">
-        <v>2.838194900053598</v>
+        <v>1.810714199399733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -902,25 +893,25 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -928,25 +919,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -954,25 +945,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -983,22 +974,22 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
